--- a/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>20.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0127</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>23.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9282</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>59.88</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6511</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8195</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5561</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5770</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4565</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1067,14 +1110,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.58</v>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9278</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1083,14 +1148,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.38</v>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1099,13 +1186,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1281,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3.74</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="3">
@@ -1276,14 +1371,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="4">
@@ -1292,14 +1387,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -1308,14 +1403,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.38</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="6">
@@ -1324,13 +1419,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.56</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3750</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.74</v>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6</v>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1403,14 +1490,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.58</v>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1419,14 +1528,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.38</v>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1435,13 +1566,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,167 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007130</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚小盘价值股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0127</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006551</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中庚价值领航混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9282</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>59.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6511</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -627,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -678,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>012930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>中庚价值先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.97</t>
+          <t>50.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8195</t>
+          <t>1.3750</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -716,36 +694,188 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>166109</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>信达澳银量化先锋混合（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>84.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5561</t>
+          <t>0.0201</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +910,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -810,32 +940,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>012930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中庚价值先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.83</t>
+          <t>54.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.86</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5770</t>
+          <t>1.5613</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -848,6 +978,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9278</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1010,214 +1348,6 @@
       </c>
       <c r="H4" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012930</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>71.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4099</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000729</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信中小盘先锋股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>29.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9278</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>168501</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>北信瑞丰产业升级多策略混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2289</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161605</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通蓝筹成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>77.86</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1696</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1252,7 +1382,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1282,32 +1412,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012930</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值先锋股票</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.59</t>
+          <t>20.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>78.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5613</t>
+          <t>0.5770</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1325,7 +1455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1346,7 +1476,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1376,36 +1506,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012930</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值先锋股票</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.55</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>93.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3750</t>
+          <t>0.8195</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1414,188 +1544,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166109</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银量化先锋混合（LOF）A</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.43</t>
+          <t>59.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0201</t>
+          <t>0.5561</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>013489</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发东财大数据精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002802</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发东财大数据精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001866</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>北信瑞丰新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.81</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>166110</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>信达澳银量化先锋混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1609,144 +1587,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0127</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9282</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.56</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6511</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.59</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3.74</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.38</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.59</v>
       </c>
     </row>
@@ -600,6 +617,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,7 +1164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1185,7 +1372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1355,7 +1542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1449,7 +1636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1581,7 +1768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603507-振江股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>3.74</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1.38</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,204 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0127</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9282</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6511</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -673,36 +860,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011486</t>
+          <t>016013</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时创新精选混合A</t>
+          <t>南方碳中和股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>84.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2570</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +898,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003655</t>
+          <t>003697</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信澳新财富灵活配置混合</t>
+          <t>华夏睿磐泰盛混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>54.87</t>
+          <t>28.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0687</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +936,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011487</t>
+          <t>016014</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时创新精选混合C</t>
+          <t>南方碳中和股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>84.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0278</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -787,6 +974,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1070,7 +1427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1164,7 +1521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1372,7 +1729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1542,7 +1899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1636,7 +1993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1766,174 +2123,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007130</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚小盘价值股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0127</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006551</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中庚价值领航混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9282</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>59.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6511</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>